--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.274810189297995</v>
+        <v>0.2829085</v>
       </c>
       <c r="H2">
-        <v>0.274810189297995</v>
+        <v>0.565817</v>
       </c>
       <c r="I2">
-        <v>0.01962812435499356</v>
+        <v>0.01886209596349162</v>
       </c>
       <c r="J2">
-        <v>0.01962812435499356</v>
+        <v>0.01336522687405121</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>45.22610065102877</v>
+        <v>46.56030873124925</v>
       </c>
       <c r="R2">
-        <v>45.22610065102877</v>
+        <v>186.241234924997</v>
       </c>
       <c r="S2">
-        <v>0.00465047412423662</v>
+        <v>0.004377450106204447</v>
       </c>
       <c r="T2">
-        <v>0.00465047412423662</v>
+        <v>0.002413222730773225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.274810189297995</v>
+        <v>0.2829085</v>
       </c>
       <c r="H3">
-        <v>0.274810189297995</v>
+        <v>0.565817</v>
       </c>
       <c r="I3">
-        <v>0.01962812435499356</v>
+        <v>0.01886209596349162</v>
       </c>
       <c r="J3">
-        <v>0.01962812435499356</v>
+        <v>0.01336522687405121</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>30.60596306612228</v>
+        <v>33.599437887988</v>
       </c>
       <c r="R3">
-        <v>30.60596306612228</v>
+        <v>201.596627327928</v>
       </c>
       <c r="S3">
-        <v>0.003147126045302906</v>
+        <v>0.003158910818228084</v>
       </c>
       <c r="T3">
-        <v>0.003147126045302906</v>
+        <v>0.002612190386897385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.274810189297995</v>
+        <v>0.2829085</v>
       </c>
       <c r="H4">
-        <v>0.274810189297995</v>
+        <v>0.565817</v>
       </c>
       <c r="I4">
-        <v>0.01962812435499356</v>
+        <v>0.01886209596349162</v>
       </c>
       <c r="J4">
-        <v>0.01962812435499356</v>
+        <v>0.01336522687405121</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>23.09000580895913</v>
+        <v>23.9148091569345</v>
       </c>
       <c r="R4">
-        <v>23.09000580895913</v>
+        <v>143.488854941607</v>
       </c>
       <c r="S4">
-        <v>0.002374281067731076</v>
+        <v>0.002248393250314111</v>
       </c>
       <c r="T4">
-        <v>0.002374281067731076</v>
+        <v>0.001859258324275814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.274810189297995</v>
+        <v>0.2829085</v>
       </c>
       <c r="H5">
-        <v>0.274810189297995</v>
+        <v>0.565817</v>
       </c>
       <c r="I5">
-        <v>0.01962812435499356</v>
+        <v>0.01886209596349162</v>
       </c>
       <c r="J5">
-        <v>0.01962812435499356</v>
+        <v>0.01336522687405121</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>21.71036154020221</v>
+        <v>22.52961690496416</v>
       </c>
       <c r="R5">
-        <v>21.71036154020221</v>
+        <v>135.177701429785</v>
       </c>
       <c r="S5">
-        <v>0.002232416085339332</v>
+        <v>0.002118161940949285</v>
       </c>
       <c r="T5">
-        <v>0.002232416085339332</v>
+        <v>0.001751566466552943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.274810189297995</v>
+        <v>0.2829085</v>
       </c>
       <c r="H6">
-        <v>0.274810189297995</v>
+        <v>0.565817</v>
       </c>
       <c r="I6">
-        <v>0.01962812435499356</v>
+        <v>0.01886209596349162</v>
       </c>
       <c r="J6">
-        <v>0.01962812435499356</v>
+        <v>0.01336522687405121</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>31.89852593880478</v>
+        <v>34.439380776514</v>
       </c>
       <c r="R6">
-        <v>31.89852593880478</v>
+        <v>206.636284659084</v>
       </c>
       <c r="S6">
-        <v>0.003280036689971146</v>
+        <v>0.003237879540446115</v>
       </c>
       <c r="T6">
-        <v>0.003280036689971146</v>
+        <v>0.002677491798970556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.274810189297995</v>
+        <v>0.2829085</v>
       </c>
       <c r="H7">
-        <v>0.274810189297995</v>
+        <v>0.565817</v>
       </c>
       <c r="I7">
-        <v>0.01962812435499356</v>
+        <v>0.01886209596349162</v>
       </c>
       <c r="J7">
-        <v>0.01962812435499356</v>
+        <v>0.01336522687405121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>38.3535644339877</v>
+        <v>39.58123724729825</v>
       </c>
       <c r="R7">
-        <v>38.3535644339877</v>
+        <v>158.324948989193</v>
       </c>
       <c r="S7">
-        <v>0.003943790342412473</v>
+        <v>0.003721300307349579</v>
       </c>
       <c r="T7">
-        <v>0.003943790342412473</v>
+        <v>0.002051497166581292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.1321412038108</v>
+        <v>12.04926766666667</v>
       </c>
       <c r="H8">
-        <v>11.1321412038108</v>
+        <v>36.147803</v>
       </c>
       <c r="I8">
-        <v>0.7951053505108889</v>
+        <v>0.8033496449150993</v>
       </c>
       <c r="J8">
-        <v>0.7951053505108889</v>
+        <v>0.8538513125153698</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>1832.040288721147</v>
+        <v>1983.035584103904</v>
       </c>
       <c r="R8">
-        <v>1832.040288721147</v>
+        <v>11898.21350462342</v>
       </c>
       <c r="S8">
-        <v>0.1883836066920105</v>
+        <v>0.1864386118732233</v>
       </c>
       <c r="T8">
-        <v>0.1883836066920105</v>
+        <v>0.1541712247371722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.1321412038108</v>
+        <v>12.04926766666667</v>
       </c>
       <c r="H9">
-        <v>11.1321412038108</v>
+        <v>36.147803</v>
       </c>
       <c r="I9">
-        <v>0.7951053505108889</v>
+        <v>0.8033496449150993</v>
       </c>
       <c r="J9">
-        <v>0.7951053505108889</v>
+        <v>0.8538513125153698</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>1239.800836355587</v>
+        <v>1431.023177323794</v>
       </c>
       <c r="R9">
-        <v>1239.800836355587</v>
+        <v>12879.20859591415</v>
       </c>
       <c r="S9">
-        <v>0.127485271241208</v>
+        <v>0.1345401851975433</v>
       </c>
       <c r="T9">
-        <v>0.127485271241208</v>
+        <v>0.1668824787944873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1321412038108</v>
+        <v>12.04926766666667</v>
       </c>
       <c r="H10">
-        <v>11.1321412038108</v>
+        <v>36.147803</v>
       </c>
       <c r="I10">
-        <v>0.7951053505108889</v>
+        <v>0.8033496449150993</v>
       </c>
       <c r="J10">
-        <v>0.7951053505108889</v>
+        <v>0.8538513125153698</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>935.3408828062696</v>
+        <v>1018.548176280157</v>
       </c>
       <c r="R10">
-        <v>935.3408828062696</v>
+        <v>9166.933586521413</v>
       </c>
       <c r="S10">
-        <v>0.09617850113576502</v>
+        <v>0.09576061550982523</v>
       </c>
       <c r="T10">
-        <v>0.09617850113576502</v>
+        <v>0.1187806369056289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.1321412038108</v>
+        <v>12.04926766666667</v>
       </c>
       <c r="H11">
-        <v>11.1321412038108</v>
+        <v>36.147803</v>
       </c>
       <c r="I11">
-        <v>0.7951053505108889</v>
+        <v>0.8033496449150993</v>
       </c>
       <c r="J11">
-        <v>0.7951053505108889</v>
+        <v>0.8538513125153698</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>879.4535998417495</v>
+        <v>959.5518852044793</v>
       </c>
       <c r="R11">
-        <v>879.4535998417495</v>
+        <v>8635.966966840315</v>
       </c>
       <c r="S11">
-        <v>0.09043176729050527</v>
+        <v>0.09021397443994837</v>
       </c>
       <c r="T11">
-        <v>0.09043176729050527</v>
+        <v>0.111900631430943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.1321412038108</v>
+        <v>12.04926766666667</v>
       </c>
       <c r="H12">
-        <v>11.1321412038108</v>
+        <v>36.147803</v>
       </c>
       <c r="I12">
-        <v>0.7951053505108889</v>
+        <v>0.8033496449150993</v>
       </c>
       <c r="J12">
-        <v>0.7951053505108889</v>
+        <v>0.8538513125153698</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>1292.160584916081</v>
+        <v>1466.79692285835</v>
       </c>
       <c r="R12">
-        <v>1292.160584916081</v>
+        <v>13201.17230572515</v>
       </c>
       <c r="S12">
-        <v>0.1328692785362649</v>
+        <v>0.1379035174102542</v>
       </c>
       <c r="T12">
-        <v>0.1328692785362649</v>
+        <v>0.1710543268995157</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.1321412038108</v>
+        <v>12.04926766666667</v>
       </c>
       <c r="H13">
-        <v>11.1321412038108</v>
+        <v>36.147803</v>
       </c>
       <c r="I13">
-        <v>0.7951053505108889</v>
+        <v>0.8033496449150993</v>
       </c>
       <c r="J13">
-        <v>0.7951053505108889</v>
+        <v>0.8538513125153698</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>1553.644339168329</v>
+        <v>1685.792127739298</v>
       </c>
       <c r="R13">
-        <v>1553.644339168329</v>
+        <v>10114.75276643579</v>
       </c>
       <c r="S13">
-        <v>0.1597569256151352</v>
+        <v>0.158492740484305</v>
       </c>
       <c r="T13">
-        <v>0.1597569256151352</v>
+        <v>0.1310620137476228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.258579145757283</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H14">
-        <v>0.258579145757283</v>
+        <v>0.080176</v>
       </c>
       <c r="I14">
-        <v>0.01846883349375497</v>
+        <v>0.001781833355977762</v>
       </c>
       <c r="J14">
-        <v>0.01846883349375497</v>
+        <v>0.001893846296335971</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>42.55492309855646</v>
+        <v>4.398382413202667</v>
       </c>
       <c r="R14">
-        <v>42.55492309855646</v>
+        <v>26.390294479216</v>
       </c>
       <c r="S14">
-        <v>0.004375804366946111</v>
+        <v>0.0004135217331340318</v>
       </c>
       <c r="T14">
-        <v>0.004375804366946111</v>
+        <v>0.0003419525140857806</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.258579145757283</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H15">
-        <v>0.258579145757283</v>
+        <v>0.080176</v>
       </c>
       <c r="I15">
-        <v>0.01846883349375497</v>
+        <v>0.001781833355977762</v>
       </c>
       <c r="J15">
-        <v>0.01846883349375497</v>
+        <v>0.001893846296335971</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>28.79829094013362</v>
+        <v>3.174016253909333</v>
       </c>
       <c r="R15">
-        <v>28.79829094013362</v>
+        <v>28.566146285184</v>
       </c>
       <c r="S15">
-        <v>0.002961248148999616</v>
+        <v>0.0002984107744638931</v>
       </c>
       <c r="T15">
-        <v>0.002961248148999616</v>
+        <v>0.0003701461364007881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.258579145757283</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H16">
-        <v>0.258579145757283</v>
+        <v>0.080176</v>
       </c>
       <c r="I16">
-        <v>0.01846883349375497</v>
+        <v>0.001781833355977762</v>
       </c>
       <c r="J16">
-        <v>0.01846883349375497</v>
+        <v>0.001893846296335971</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>21.72624673365747</v>
+        <v>2.259144728144</v>
       </c>
       <c r="R16">
-        <v>21.72624673365747</v>
+        <v>20.332302553296</v>
       </c>
       <c r="S16">
-        <v>0.002234049515594401</v>
+        <v>0.0002123975033590769</v>
       </c>
       <c r="T16">
-        <v>0.002234049515594401</v>
+        <v>0.0002634560209522472</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.258579145757283</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H17">
-        <v>0.258579145757283</v>
+        <v>0.080176</v>
       </c>
       <c r="I17">
-        <v>0.01846883349375497</v>
+        <v>0.001781833355977762</v>
       </c>
       <c r="J17">
-        <v>0.01846883349375497</v>
+        <v>0.001893846296335971</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>20.42808803955879</v>
+        <v>2.128290672275555</v>
       </c>
       <c r="R17">
-        <v>20.42808803955879</v>
+        <v>19.15461605048</v>
       </c>
       <c r="S17">
-        <v>0.002100563468175865</v>
+        <v>0.0002000950269286712</v>
       </c>
       <c r="T17">
-        <v>0.002100563468175865</v>
+        <v>0.0002481961358926097</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.258579145757283</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H18">
-        <v>0.258579145757283</v>
+        <v>0.080176</v>
       </c>
       <c r="I18">
-        <v>0.01846883349375497</v>
+        <v>0.001781833355977762</v>
       </c>
       <c r="J18">
-        <v>0.01846883349375497</v>
+        <v>0.001893846296335971</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>30.01451150426049</v>
+        <v>3.253362592661333</v>
       </c>
       <c r="R18">
-        <v>30.01451150426049</v>
+        <v>29.280263333952</v>
       </c>
       <c r="S18">
-        <v>0.003086308726440927</v>
+        <v>0.0003058706614032543</v>
       </c>
       <c r="T18">
-        <v>0.003086308726440927</v>
+        <v>0.0003793993154575831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.258579145757283</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H19">
-        <v>0.258579145757283</v>
+        <v>0.080176</v>
       </c>
       <c r="I19">
-        <v>0.01846883349375497</v>
+        <v>0.001781833355977762</v>
       </c>
       <c r="J19">
-        <v>0.01846883349375497</v>
+        <v>0.001893846296335971</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>36.0882977207709</v>
+        <v>3.739095004850667</v>
       </c>
       <c r="R19">
-        <v>36.0882977207709</v>
+        <v>22.434570029104</v>
       </c>
       <c r="S19">
-        <v>0.003710859267598053</v>
+        <v>0.0003515376566888351</v>
       </c>
       <c r="T19">
-        <v>0.003710859267598053</v>
+        <v>0.0002906961735469624</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.3353074590897</v>
+        <v>0.2614483333333333</v>
       </c>
       <c r="H20">
-        <v>2.3353074590897</v>
+        <v>0.784345</v>
       </c>
       <c r="I20">
-        <v>0.1667976916403626</v>
+        <v>0.01743130218013343</v>
       </c>
       <c r="J20">
-        <v>0.1667976916403626</v>
+        <v>0.01852710129339999</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>384.3265435888246</v>
+        <v>43.02845307677417</v>
       </c>
       <c r="R20">
-        <v>384.3265435888246</v>
+        <v>258.170718460645</v>
       </c>
       <c r="S20">
-        <v>0.03951922939384495</v>
+        <v>0.004045396425052536</v>
       </c>
       <c r="T20">
-        <v>0.03951922939384495</v>
+        <v>0.003345249758788311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.3353074590897</v>
+        <v>0.2614483333333333</v>
       </c>
       <c r="H21">
-        <v>2.3353074590897</v>
+        <v>0.784345</v>
       </c>
       <c r="I21">
-        <v>0.1667976916403626</v>
+        <v>0.01743130218013343</v>
       </c>
       <c r="J21">
-        <v>0.1667976916403626</v>
+        <v>0.01852710129339999</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>260.0861853904363</v>
+        <v>31.05073561505333</v>
       </c>
       <c r="R21">
-        <v>260.0861853904363</v>
+        <v>279.45662053548</v>
       </c>
       <c r="S21">
-        <v>0.02674393896043565</v>
+        <v>0.002919290048105196</v>
       </c>
       <c r="T21">
-        <v>0.02674393896043565</v>
+        <v>0.00362106205541903</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.3353074590897</v>
+        <v>0.2614483333333333</v>
       </c>
       <c r="H22">
-        <v>2.3353074590897</v>
+        <v>0.784345</v>
       </c>
       <c r="I22">
-        <v>0.1667976916403626</v>
+        <v>0.01743130218013343</v>
       </c>
       <c r="J22">
-        <v>0.1667976916403626</v>
+        <v>0.01852710129339999</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>196.2163882417593</v>
+        <v>22.100739271055</v>
       </c>
       <c r="R22">
-        <v>196.2163882417593</v>
+        <v>198.906653439495</v>
       </c>
       <c r="S22">
-        <v>0.02017638538662545</v>
+        <v>0.002077840248605258</v>
       </c>
       <c r="T22">
-        <v>0.02017638538662545</v>
+        <v>0.002577335022373158</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.3353074590897</v>
+        <v>0.2614483333333333</v>
       </c>
       <c r="H23">
-        <v>2.3353074590897</v>
+        <v>0.784345</v>
       </c>
       <c r="I23">
-        <v>0.1667976916403626</v>
+        <v>0.01743130218013343</v>
       </c>
       <c r="J23">
-        <v>0.1667976916403626</v>
+        <v>0.01852710129339999</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>184.4923194947134</v>
+        <v>20.82062147458056</v>
       </c>
       <c r="R23">
-        <v>184.4923194947134</v>
+        <v>187.385593271225</v>
       </c>
       <c r="S23">
-        <v>0.01897083201027731</v>
+        <v>0.001957487700762929</v>
       </c>
       <c r="T23">
-        <v>0.01897083201027731</v>
+        <v>0.002428050765898635</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.3353074590897</v>
+        <v>0.2614483333333333</v>
       </c>
       <c r="H24">
-        <v>2.3353074590897</v>
+        <v>0.784345</v>
       </c>
       <c r="I24">
-        <v>0.1667976916403626</v>
+        <v>0.01743130218013343</v>
       </c>
       <c r="J24">
-        <v>0.1667976916403626</v>
+        <v>0.01852710129339999</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>271.0702457909211</v>
+        <v>31.82696421299333</v>
       </c>
       <c r="R24">
-        <v>271.0702457909211</v>
+        <v>286.4426779169399</v>
       </c>
       <c r="S24">
-        <v>0.02787339933699245</v>
+        <v>0.002992268558151261</v>
       </c>
       <c r="T24">
-        <v>0.02787339933699245</v>
+        <v>0.003711583966306352</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2614483333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.784345</v>
+      </c>
+      <c r="I25">
+        <v>0.01743130218013343</v>
+      </c>
+      <c r="J25">
+        <v>0.01852710129339999</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>36.57878257308417</v>
+      </c>
+      <c r="R25">
+        <v>219.472695438505</v>
+      </c>
+      <c r="S25">
+        <v>0.00343901919945625</v>
+      </c>
+      <c r="T25">
+        <v>0.002843819724614501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.378434</v>
+      </c>
+      <c r="H26">
+        <v>4.756868</v>
+      </c>
+      <c r="I26">
+        <v>0.1585751235852978</v>
+      </c>
+      <c r="J26">
+        <v>0.1123625130208429</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>391.436175784397</v>
+      </c>
+      <c r="R26">
+        <v>1565.744703137588</v>
+      </c>
+      <c r="S26">
+        <v>0.03680156717065859</v>
+      </c>
+      <c r="T26">
+        <v>0.02028815321011523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.378434</v>
+      </c>
+      <c r="H27">
+        <v>4.756868</v>
+      </c>
+      <c r="I27">
+        <v>0.1585751235852978</v>
+      </c>
+      <c r="J27">
+        <v>0.1123625130208429</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>282.4731157023519</v>
+      </c>
+      <c r="R27">
+        <v>1694.838694214112</v>
+      </c>
+      <c r="S27">
+        <v>0.02655721158269014</v>
+      </c>
+      <c r="T27">
+        <v>0.02196088993674596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.378434</v>
+      </c>
+      <c r="H28">
+        <v>4.756868</v>
+      </c>
+      <c r="I28">
+        <v>0.1585751235852978</v>
+      </c>
+      <c r="J28">
+        <v>0.1123625130208429</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>201.053680615338</v>
+      </c>
+      <c r="R28">
+        <v>1206.322083692028</v>
+      </c>
+      <c r="S28">
+        <v>0.01890241881003078</v>
+      </c>
+      <c r="T28">
+        <v>0.0156309308954684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.378434</v>
+      </c>
+      <c r="H29">
+        <v>4.756868</v>
+      </c>
+      <c r="I29">
+        <v>0.1585751235852978</v>
+      </c>
+      <c r="J29">
+        <v>0.1123625130208429</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>189.4082604578566</v>
+      </c>
+      <c r="R29">
+        <v>1136.44956274714</v>
+      </c>
+      <c r="S29">
+        <v>0.01780755395422821</v>
+      </c>
+      <c r="T29">
+        <v>0.01472555698153071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.3353074590897</v>
-      </c>
-      <c r="H25">
-        <v>2.3353074590897</v>
-      </c>
-      <c r="I25">
-        <v>0.1667976916403626</v>
-      </c>
-      <c r="J25">
-        <v>0.1667976916403626</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q25">
-        <v>325.9244693006817</v>
-      </c>
-      <c r="R25">
-        <v>325.9244693006817</v>
-      </c>
-      <c r="S25">
-        <v>0.0335139065521868</v>
-      </c>
-      <c r="T25">
-        <v>0.0335139065521868</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.378434</v>
+      </c>
+      <c r="H30">
+        <v>4.756868</v>
+      </c>
+      <c r="I30">
+        <v>0.1585751235852978</v>
+      </c>
+      <c r="J30">
+        <v>0.1123625130208429</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>289.534581597256</v>
+      </c>
+      <c r="R30">
+        <v>1737.207489583536</v>
+      </c>
+      <c r="S30">
+        <v>0.02722110783840505</v>
+      </c>
+      <c r="T30">
+        <v>0.02250988404163444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.378434</v>
+      </c>
+      <c r="H31">
+        <v>4.756868</v>
+      </c>
+      <c r="I31">
+        <v>0.1585751235852978</v>
+      </c>
+      <c r="J31">
+        <v>0.1123625130208429</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>332.762573167793</v>
+      </c>
+      <c r="R31">
+        <v>1331.050292671172</v>
+      </c>
+      <c r="S31">
+        <v>0.03128526422928505</v>
+      </c>
+      <c r="T31">
+        <v>0.01724709795534813</v>
       </c>
     </row>
   </sheetData>
